--- a/posesiones/1469942.xlsx
+++ b/posesiones/1469942.xlsx
@@ -1949,10 +1949,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2193,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <v>18</v>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2387,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R12">
         <v>11</v>
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2490,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R14">
         <v>17</v>
@@ -2543,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2593,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R16">
         <v>7</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2696,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R18">
         <v>12</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2796,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R20">
         <v>10</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2899,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R22">
         <v>15</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3002,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R24">
         <v>16</v>
@@ -3055,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25">
         <v>28</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3158,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R27">
         <v>9</v>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3261,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R29">
         <v>13</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3461,7 +3461,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R33">
         <v>18</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3561,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R35">
         <v>32</v>
@@ -3614,7 +3614,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R36">
         <v>21</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3714,7 +3714,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R38">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R39">
         <v>12</v>
@@ -3817,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4008,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R44">
         <v>12</v>
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R45">
         <v>18</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4211,7 +4211,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R48">
         <v>13</v>
@@ -4261,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4311,7 +4311,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R50">
         <v>4</v>
@@ -4361,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4411,7 +4411,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R52">
         <v>3</v>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4514,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R54">
         <v>14</v>
@@ -4564,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4752,7 +4752,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R59">
         <v>32</v>
@@ -4802,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4852,7 +4852,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R61">
         <v>19</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5043,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5090,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5184,7 +5184,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R68">
         <v>30</v>
@@ -5237,7 +5237,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R69">
         <v>11</v>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5437,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R73">
         <v>20</v>
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5537,7 +5537,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R75">
         <v>9</v>
@@ -5587,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5637,7 +5637,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R77">
         <v>19</v>
@@ -5687,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5737,7 +5737,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R79">
         <v>13</v>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5884,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -6028,7 +6028,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R85">
         <v>26</v>
@@ -6081,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6131,7 +6131,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R87">
         <v>14</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6231,7 +6231,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R89">
         <v>19</v>
@@ -6281,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6331,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R91">
         <v>15</v>
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6431,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6478,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6572,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6669,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R98">
         <v>17</v>
@@ -6719,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6816,7 +6816,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R101">
         <v>14</v>
@@ -6869,7 +6869,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R102">
         <v>14</v>
@@ -6919,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6969,7 +6969,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R104">
         <v>6</v>
@@ -7013,10 +7013,10 @@
         <v>1</v>
       </c>
       <c r="P105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7063,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7110,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7151,10 +7151,10 @@
         <v>1</v>
       </c>
       <c r="P108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7204,7 +7204,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R109">
         <v>12</v>
@@ -7254,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7304,7 +7304,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R111">
         <v>20</v>
@@ -7354,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7401,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7448,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7495,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7542,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7589,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7636,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7686,7 +7686,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R119">
         <v>22</v>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7830,7 +7830,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7880,7 +7880,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R123">
         <v>22</v>
@@ -7930,7 +7930,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7980,7 +7980,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R125">
         <v>17</v>
@@ -8030,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8080,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R127">
         <v>19</v>
@@ -8133,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8183,7 +8183,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R129">
         <v>11</v>
@@ -8236,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8286,7 +8286,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R131">
         <v>7</v>
@@ -8336,7 +8336,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8386,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R133">
         <v>14</v>
@@ -8436,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8480,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8527,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8574,7 +8574,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8624,7 +8624,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R138">
         <v>21</v>
@@ -8677,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8727,7 +8727,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R140">
         <v>7</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8824,7 +8824,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8918,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8965,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9062,7 +9062,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R147">
         <v>5</v>
@@ -9115,7 +9115,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R148">
         <v>10</v>
@@ -9168,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9218,7 +9218,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R150">
         <v>8</v>
@@ -9268,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9318,7 +9318,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R152">
         <v>12</v>
@@ -9371,7 +9371,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9421,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R154">
         <v>7</v>
@@ -9471,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9565,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9612,7 +9612,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9662,7 +9662,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R159">
         <v>14</v>
@@ -9715,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R160">
         <v>21</v>
@@ -9765,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9815,7 +9815,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R162">
         <v>5</v>
@@ -9868,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9918,7 +9918,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R164">
         <v>17</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -10021,7 +10021,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R166">
         <v>19</v>
@@ -10074,7 +10074,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R167">
         <v>16</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10177,7 +10177,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R169">
         <v>6</v>
@@ -10227,7 +10227,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10277,7 +10277,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R171">
         <v>7</v>
@@ -10327,7 +10327,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10377,7 +10377,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R173">
         <v>11</v>
@@ -10430,7 +10430,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R174">
         <v>25</v>
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10574,7 +10574,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10621,7 +10621,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10668,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10762,7 +10762,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10809,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10856,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10903,7 +10903,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10950,7 +10950,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10994,7 +10994,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11041,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11088,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11138,7 +11138,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R189">
         <v>26</v>
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11335,7 +11335,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R193">
         <v>7</v>
@@ -11388,7 +11388,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R194">
         <v>18</v>
@@ -11438,7 +11438,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11485,7 +11485,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11532,7 +11532,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11579,7 +11579,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11673,7 +11673,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11720,7 +11720,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11767,7 +11767,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11817,7 +11817,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R203">
         <v>10</v>
@@ -11867,7 +11867,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11917,7 +11917,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R205">
         <v>8</v>
@@ -11967,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -12014,7 +12014,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12064,7 +12064,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12111,7 +12111,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12158,7 +12158,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12205,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12346,7 +12346,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12396,7 +12396,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R215">
         <v>14</v>
@@ -12446,7 +12446,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12493,7 +12493,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12540,7 +12540,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12587,7 +12587,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12637,7 +12637,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R220">
         <v>11</v>
@@ -12690,7 +12690,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12737,7 +12737,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12787,7 +12787,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12834,7 +12834,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12881,7 +12881,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12928,7 +12928,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12975,7 +12975,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13022,7 +13022,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13069,7 +13069,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13116,7 +13116,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13166,7 +13166,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R231">
         <v>21</v>
@@ -13216,7 +13216,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13263,7 +13263,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13310,7 +13310,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13363,7 +13363,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R235">
         <v>13</v>
@@ -13413,7 +13413,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13460,7 +13460,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13554,7 +13554,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13604,7 +13604,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R240">
         <v>25</v>
@@ -13654,7 +13654,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13707,7 +13707,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R242">
         <v>21</v>
@@ -13757,7 +13757,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13804,7 +13804,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13851,7 +13851,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13901,7 +13901,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R246">
         <v>12</v>
@@ -13948,7 +13948,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13995,7 +13995,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14042,7 +14042,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14092,7 +14092,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R250">
         <v>8</v>
@@ -14145,7 +14145,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R251">
         <v>21</v>
@@ -14195,7 +14195,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14242,7 +14242,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14289,7 +14289,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14339,7 +14339,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R255">
         <v>0</v>
@@ -14389,7 +14389,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14436,7 +14436,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14486,7 +14486,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R258">
         <v>14</v>
@@ -14536,7 +14536,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14586,7 +14586,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R260">
         <v>7</v>
@@ -14636,7 +14636,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14677,10 +14677,10 @@
         <v>1</v>
       </c>
       <c r="P262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q262">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14721,10 +14721,10 @@
         <v>1</v>
       </c>
       <c r="P263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q263">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14771,7 +14771,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14821,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14871,7 +14871,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R266">
         <v>31</v>
@@ -14924,7 +14924,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R267">
         <v>30</v>
@@ -14974,7 +14974,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15024,7 +15024,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R269">
         <v>19</v>
@@ -15074,7 +15074,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15121,7 +15121,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15171,7 +15171,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R272">
         <v>24</v>
@@ -15224,7 +15224,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15271,7 +15271,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15318,7 +15318,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15365,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15415,7 +15415,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R277">
         <v>9</v>
@@ -15468,7 +15468,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15518,7 +15518,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R279">
         <v>12</v>
@@ -15571,7 +15571,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15621,7 +15621,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R281">
         <v>11</v>
@@ -15671,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15718,7 +15718,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15765,7 +15765,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15812,7 +15812,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15862,7 +15862,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15912,7 +15912,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R287">
         <v>12</v>
@@ -15965,7 +15965,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16015,7 +16015,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R289">
         <v>29</v>
@@ -16068,7 +16068,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16118,7 +16118,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R291">
         <v>10</v>
@@ -16168,7 +16168,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16212,7 +16212,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16262,7 +16262,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R294">
         <v>14</v>
@@ -16315,7 +16315,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16365,7 +16365,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R296">
         <v>23</v>
@@ -16418,7 +16418,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16465,7 +16465,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16515,7 +16515,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16565,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R300">
         <v>31</v>
@@ -16615,7 +16615,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16668,7 +16668,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R302">
         <v>11</v>
@@ -16718,7 +16718,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16812,7 +16812,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16859,7 +16859,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16906,7 +16906,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16953,7 +16953,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -17000,7 +17000,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17047,7 +17047,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17097,7 +17097,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17144,7 +17144,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17191,7 +17191,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17238,7 +17238,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17288,7 +17288,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R315">
         <v>30</v>
@@ -17341,7 +17341,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R316">
         <v>12</v>
@@ -17391,7 +17391,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17441,7 +17441,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17491,7 +17491,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R319">
         <v>5</v>
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17591,7 +17591,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17638,7 +17638,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17685,7 +17685,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17732,7 +17732,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17782,7 +17782,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R325">
         <v>22</v>
@@ -17835,7 +17835,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17885,7 +17885,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R327">
         <v>17</v>
@@ -17935,7 +17935,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17985,7 +17985,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R329">
         <v>18</v>
@@ -18038,7 +18038,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18132,7 +18132,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18179,7 +18179,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18226,7 +18226,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18273,7 +18273,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18320,7 +18320,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18367,7 +18367,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R337">
         <v>27</v>
@@ -18420,7 +18420,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R338">
         <v>12</v>
@@ -18470,7 +18470,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18520,7 +18520,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R340">
         <v>12</v>
@@ -18570,7 +18570,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18620,7 +18620,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R342">
         <v>11</v>
@@ -18670,7 +18670,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18717,7 +18717,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18767,7 +18767,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R345">
         <v>16</v>
@@ -18820,7 +18820,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18867,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18920,7 +18920,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R348">
         <v>17</v>
@@ -18970,7 +18970,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19017,7 +19017,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19064,7 +19064,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19114,7 +19114,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R352">
         <v>17</v>
@@ -19167,7 +19167,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19214,7 +19214,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19261,7 +19261,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19308,7 +19308,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19355,7 +19355,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19402,7 +19402,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19449,7 +19449,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19496,7 +19496,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19543,7 +19543,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19593,7 +19593,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R362">
         <v>28</v>
@@ -19643,7 +19643,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19690,7 +19690,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19737,7 +19737,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19787,7 +19787,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R366">
         <v>0</v>
@@ -19837,7 +19837,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19890,7 +19890,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R368">
         <v>0</v>
@@ -19943,7 +19943,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R369">
         <v>0</v>
@@ -19993,7 +19993,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20040,7 +20040,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20090,7 +20090,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R372">
         <v>14</v>
@@ -20140,7 +20140,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20190,7 +20190,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R374">
         <v>20</v>
@@ -20243,7 +20243,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20293,7 +20293,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R376">
         <v>7</v>
@@ -20346,7 +20346,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20393,7 +20393,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20440,7 +20440,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20487,7 +20487,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20534,7 +20534,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20581,7 +20581,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20628,7 +20628,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20675,7 +20675,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20725,7 +20725,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R385">
         <v>3</v>
@@ -20778,7 +20778,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R386">
         <v>17</v>
@@ -20828,7 +20828,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20878,7 +20878,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R388">
         <v>28</v>
@@ -20928,7 +20928,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20969,10 +20969,10 @@
         <v>1</v>
       </c>
       <c r="P390" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q390">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21019,7 +21019,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21066,7 +21066,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21113,7 +21113,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21160,7 +21160,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21201,10 +21201,10 @@
         <v>1</v>
       </c>
       <c r="P395" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q395">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21251,7 +21251,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21298,7 +21298,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21342,7 +21342,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21392,7 +21392,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R399">
         <v>10</v>
@@ -21445,7 +21445,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R400">
         <v>0</v>
@@ -21495,7 +21495,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21542,7 +21542,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21589,7 +21589,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21636,7 +21636,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21686,7 +21686,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R405">
         <v>28</v>
@@ -21739,7 +21739,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21789,7 +21789,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R407">
         <v>20</v>
@@ -21842,7 +21842,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21892,7 +21892,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R409">
         <v>10</v>
@@ -21945,7 +21945,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R410">
         <v>15</v>
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22042,7 +22042,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22095,7 +22095,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R413">
         <v>18</v>
@@ -22145,7 +22145,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22189,7 +22189,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22236,7 +22236,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22283,7 +22283,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22333,7 +22333,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R418">
         <v>25</v>
@@ -22386,7 +22386,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22436,7 +22436,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R420">
         <v>13</v>
@@ -22486,7 +22486,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22533,7 +22533,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22583,7 +22583,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22633,7 +22633,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R424">
         <v>22</v>
@@ -22686,7 +22686,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22736,7 +22736,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R426">
         <v>7</v>
@@ -22789,7 +22789,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22839,7 +22839,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R428">
         <v>9</v>
@@ -22889,7 +22889,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22939,7 +22939,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R430">
         <v>27</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23036,7 +23036,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23083,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23130,7 +23130,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23177,7 +23177,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23224,7 +23224,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23268,7 +23268,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23362,7 +23362,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23412,7 +23412,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R440">
         <v>26</v>
@@ -23465,7 +23465,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23515,7 +23515,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R442">
         <v>18</v>
@@ -23568,7 +23568,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23618,7 +23618,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R444">
         <v>21</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23762,7 +23762,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23809,7 +23809,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23859,7 +23859,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R449">
         <v>27</v>
@@ -23912,7 +23912,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23959,7 +23959,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24006,7 +24006,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24053,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24100,7 +24100,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24197,7 +24197,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R456">
         <v>8</v>
@@ -24247,7 +24247,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24297,7 +24297,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R458">
         <v>0</v>
@@ -24347,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24394,7 +24394,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24441,7 +24441,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24491,7 +24491,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R462">
         <v>11</v>
@@ -24544,7 +24544,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R463">
         <v>20</v>
@@ -24594,7 +24594,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24644,7 +24644,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R465">
         <v>7</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24738,7 +24738,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24785,7 +24785,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24832,7 +24832,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24882,7 +24882,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R470">
         <v>18</v>
@@ -24932,7 +24932,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24982,7 +24982,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R472">
         <v>16</v>
@@ -25035,7 +25035,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25082,7 +25082,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25176,7 +25176,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25223,7 +25223,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25270,7 +25270,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25367,7 +25367,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R480">
         <v>7</v>
@@ -25420,7 +25420,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R481">
         <v>10</v>
@@ -25473,7 +25473,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25523,7 +25523,7 @@
         <v>1</v>
       </c>
       <c r="Q483">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R483">
         <v>22</v>
@@ -25573,7 +25573,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25623,7 +25623,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R485">
         <v>16</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25726,7 +25726,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R487">
         <v>19</v>
@@ -25776,7 +25776,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25826,7 +25826,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R489">
         <v>19</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25929,7 +25929,7 @@
         <v>1</v>
       </c>
       <c r="Q491">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R491">
         <v>7</v>
@@ -25979,7 +25979,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26120,7 +26120,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26167,7 +26167,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26217,7 +26217,7 @@
         <v>1</v>
       </c>
       <c r="Q497">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R497">
         <v>0</v>
@@ -26270,7 +26270,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26320,7 +26320,7 @@
         <v>1</v>
       </c>
       <c r="Q499">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R499">
         <v>7</v>
@@ -26373,7 +26373,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26423,7 +26423,7 @@
         <v>1</v>
       </c>
       <c r="Q501">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R501">
         <v>10</v>
@@ -26473,7 +26473,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26520,7 +26520,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26567,7 +26567,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26614,7 +26614,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26661,7 +26661,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26708,7 +26708,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26755,7 +26755,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26802,7 +26802,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26849,7 +26849,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26899,7 +26899,7 @@
         <v>1</v>
       </c>
       <c r="Q511">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R511">
         <v>11</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -27046,7 +27046,7 @@
         <v>1</v>
       </c>
       <c r="Q514">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R514">
         <v>11</v>
@@ -27096,7 +27096,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27143,7 +27143,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27190,7 +27190,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27237,7 +27237,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27284,7 +27284,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27331,7 +27331,7 @@
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27381,7 +27381,7 @@
         <v>1</v>
       </c>
       <c r="Q521">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R521">
         <v>12</v>
@@ -27434,7 +27434,7 @@
         <v>1</v>
       </c>
       <c r="Q522">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R522">
         <v>9</v>
@@ -27484,7 +27484,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27531,7 +27531,7 @@
         <v>0</v>
       </c>
       <c r="Q524">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27628,7 +27628,7 @@
         <v>1</v>
       </c>
       <c r="Q526">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R526">
         <v>7</v>
@@ -27681,7 +27681,7 @@
         <v>1</v>
       </c>
       <c r="Q527">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R527">
         <v>23</v>
@@ -27734,7 +27734,7 @@
         <v>0</v>
       </c>
       <c r="Q528">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="529" spans="1:18">
@@ -27784,7 +27784,7 @@
         <v>1</v>
       </c>
       <c r="Q529">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R529">
         <v>9</v>
@@ -27828,10 +27828,10 @@
         <v>1</v>
       </c>
       <c r="P530" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q530">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -27872,7 +27872,7 @@
         <v>0</v>
       </c>
       <c r="Q531">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
